--- a/Tables/lenders_profit.xlsx
+++ b/Tables/lenders_profit.xlsx
@@ -8,17 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55FC28A-2E65-4D1B-BE83-CFCB632CC04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4CA94B-B753-4EA3-954E-F1EF75322F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-9735" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26025" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lenders_profit" sheetId="1" r:id="rId1"/>
     <sheet name="lenders_profit_aux" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,17 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Observations</t>
   </si>
   <si>
-    <t>R-squared</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empirical </t>
-  </si>
-  <si>
     <t>Lender's Profit</t>
   </si>
   <si>
@@ -63,26 +54,76 @@
     <t>Choice Commitment</t>
   </si>
   <si>
-    <t>Back-of-the-envelope</t>
-  </si>
-  <si>
     <t>(3)</t>
   </si>
   <si>
-    <t>-</t>
+    <t>No return</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>Exponential</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>(1)</t>
+  </si>
+  <si>
+    <t>Control Mean</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
     </font>
     <font>
       <sz val="11"/>
@@ -168,7 +209,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -223,97 +264,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -330,15 +280,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -351,35 +452,52 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -397,75 +515,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="lenders_profit"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v/>
-          </cell>
-          <cell r="B2" t="str">
-            <v>(1)</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>-259.5**</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v/>
-          </cell>
-          <cell r="B6" t="str">
-            <v>(131.2)</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>44.1</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v/>
-          </cell>
-          <cell r="B9" t="str">
-            <v>(152.2)</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>4441</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>0.002</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Control Mean</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v>1792.1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -794,177 +843,166 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.36328125" customWidth="1"/>
-    <col min="4" max="4" width="10" style="23" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="23"/>
+    <col min="4" max="4" width="10" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="7"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="38"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="22"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="str">
-        <f>[1]lenders_profit!A2</f>
-        <v/>
-      </c>
-      <c r="B4" s="4" t="str">
-        <f>[1]lenders_profit!B2</f>
-        <v>(1)</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="str">
-        <f>[1]lenders_profit!B5</f>
-        <v>-259.5**</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="23" t="str">
+      <c r="B6" s="7" t="str">
+        <f>CONCATENATE(ROUND(lenders_profit_aux!A5,1),IF(lenders_profit_aux!B5&lt;0.01,"***",IF(lenders_profit_aux!B5&lt;0.05,"**",IF(lenders_profit_aux!B5&lt;0.1,"*",""))))</f>
+        <v>-204***</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="7" t="str">
         <f>CONCATENATE(ROUND(lenders_profit_aux!C5,1),IF(lenders_profit_aux!D5&lt;0.01,"***",IF(lenders_profit_aux!D5&lt;0.05,"**",IF(lenders_profit_aux!D5&lt;0.1,"*",""))))</f>
-        <v>-146.3**</v>
-      </c>
-      <c r="E5" s="23" t="str">
+        <v>-160.8</v>
+      </c>
+      <c r="E6" s="7" t="str">
         <f>CONCATENATE(ROUND(lenders_profit_aux!E5,1),IF(lenders_profit_aux!F5&lt;0.01,"***",IF(lenders_profit_aux!F5&lt;0.05,"**",IF(lenders_profit_aux!F5&lt;0.1,"*",""))))</f>
-        <v>-196.1***</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="str">
-        <f>[1]lenders_profit!A6</f>
-        <v/>
-      </c>
-      <c r="B6" s="1" t="str">
-        <f>[1]lenders_profit!B6</f>
-        <v>(131.2)</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="23" t="str">
-        <f>CONCATENATE("(",ROUND(lenders_profit_aux!C6,1),")")</f>
-        <v>(61.4)</v>
-      </c>
-      <c r="E6" s="23" t="str">
-        <f>CONCATENATE("(",ROUND(lenders_profit_aux!E6,1),")")</f>
-        <v>(59.1)</v>
+        <v>-217.4*</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="str">
-        <f>[1]lenders_profit!B8</f>
-        <v>44.1</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="23" t="str">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7" t="str">
+        <f>CONCATENATE("(",ROUND(lenders_profit_aux!A6,1),")")</f>
+        <v>(74.6)</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="7" t="str">
+        <f>CONCATENATE("(",ROUND(lenders_profit_aux!C6,1),")")</f>
+        <v>(114.4)</v>
+      </c>
+      <c r="E7" s="7" t="str">
+        <f>CONCATENATE("(",ROUND(lenders_profit_aux!E6,1),")")</f>
+        <v>(124.5)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="str">
+        <f>CONCATENATE(ROUND(lenders_profit_aux!A7,1),IF(lenders_profit_aux!B7&lt;0.01,"***",IF(lenders_profit_aux!B7&lt;0.05,"**",IF(lenders_profit_aux!B7&lt;0.1,"*",""))))</f>
+        <v>-38.9</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="7" t="str">
         <f>CONCATENATE(ROUND(lenders_profit_aux!C7,1),IF(lenders_profit_aux!D7&lt;0.01,"***",IF(lenders_profit_aux!D7&lt;0.05,"**",IF(lenders_profit_aux!D7&lt;0.1,"*",""))))</f>
-        <v>67.8</v>
-      </c>
-      <c r="E7" s="23" t="str">
+        <v>38.1</v>
+      </c>
+      <c r="E8" s="7" t="str">
         <f>CONCATENATE(ROUND(lenders_profit_aux!E7,1),IF(lenders_profit_aux!F7&lt;0.01,"***",IF(lenders_profit_aux!F7&lt;0.05,"**",IF(lenders_profit_aux!F7&lt;0.1,"*",""))))</f>
-        <v>55.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="str">
-        <f>[1]lenders_profit!A9</f>
-        <v/>
-      </c>
-      <c r="B8" s="1" t="str">
-        <f>[1]lenders_profit!B9</f>
-        <v>(152.2)</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="23" t="str">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7" t="str">
+        <f>CONCATENATE("(",ROUND(lenders_profit_aux!A8,1),")")</f>
+        <v>(76.3)</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="7" t="str">
         <f>CONCATENATE("(",ROUND(lenders_profit_aux!C8,1),")")</f>
-        <v>(74.6)</v>
-      </c>
-      <c r="E8" s="23" t="str">
+        <v>(129.3)</v>
+      </c>
+      <c r="E9" s="7" t="str">
         <f>CONCATENATE("(",ROUND(lenders_profit_aux!E8,1),")")</f>
-        <v>(76.1)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+        <v>(138.6)</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="15"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="6" t="str">
-        <f>[1]lenders_profit!B11</f>
-        <v>4441</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6">
+      <c r="B11" s="5">
         <f>lenders_profit_aux!E10</f>
         <v>6304</v>
       </c>
-      <c r="E10" s="6">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5">
         <f>lenders_profit_aux!E10</f>
         <v>6304</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="str">
-        <f>[1]lenders_profit!B12</f>
-        <v>0.002</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>9</v>
+      <c r="E11" s="5">
+        <f>lenders_profit_aux!E10</f>
+        <v>6304</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="str">
-        <f>[1]lenders_profit!A13</f>
-        <v>Control Mean</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <f>[1]lenders_profit!B13</f>
-        <v>1792.1</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="28">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="12">
+        <f>lenders_profit_aux!A12</f>
+        <v>1077.135375976563</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12">
         <f>lenders_profit_aux!C12</f>
-        <v>1372.311279296875</v>
-      </c>
-      <c r="E12" s="28">
+        <v>1578.427612304688</v>
+      </c>
+      <c r="E12" s="12">
         <f>lenders_profit_aux!E12</f>
-        <v>1531.311767578125</v>
+        <v>1761.309326171875</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -979,70 +1017,91 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410E469E-95D5-43DF-81DC-5B22D6E83E52}">
-  <dimension ref="C5:F12"/>
+  <dimension ref="A5:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C5" s="8">
-        <v>-146.25624084472659</v>
-      </c>
-      <c r="D5" s="10">
-        <v>1.7220927964583198E-2</v>
-      </c>
-      <c r="E5" s="15">
-        <v>-196.1148986816406</v>
-      </c>
-      <c r="F5" s="17">
-        <v>9.0872583990629998E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C6" s="9">
-        <v>61.401724220737741</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="16">
-        <v>59.117769550898331</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C7" s="11">
-        <v>67.794235229492188</v>
-      </c>
-      <c r="D7" s="13">
-        <v>0.3637906758026217</v>
-      </c>
-      <c r="E7" s="18">
-        <v>55.37261962890625</v>
-      </c>
-      <c r="F7" s="20">
-        <v>0.46696514752990392</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C8" s="12">
-        <v>74.649630800683042</v>
-      </c>
-      <c r="E8" s="19">
-        <v>76.121329183533021</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="16">
+        <v>-204.0331726074219</v>
+      </c>
+      <c r="B5" s="18">
+        <v>6.2038287864087998E-3</v>
+      </c>
+      <c r="C5" s="23">
+        <v>-160.75653076171881</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0.15999426090627281</v>
+      </c>
+      <c r="E5" s="30">
+        <v>-217.4389953613281</v>
+      </c>
+      <c r="F5" s="32">
+        <v>8.0728188276812898E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="17">
+        <v>74.551482166850519</v>
+      </c>
+      <c r="C6" s="24">
+        <v>114.4100606235336</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="31">
+        <v>124.5015299206453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="19">
+        <v>-38.889949798583977</v>
+      </c>
+      <c r="B7" s="21">
+        <v>0.61010799851189113</v>
+      </c>
+      <c r="C7" s="26">
+        <v>38.126838684082031</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0.76817832750317594</v>
+      </c>
+      <c r="E7" s="33">
+        <v>19.783578872680661</v>
+      </c>
+      <c r="F7" s="35">
+        <v>0.88646708232066218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="20">
+        <v>76.266871305378061</v>
+      </c>
+      <c r="C8" s="27">
+        <v>129.34938721666569</v>
+      </c>
+      <c r="E8" s="34">
+        <v>138.56374431605431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E10">
         <v>6304</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C12" s="14">
-        <v>1372.311279296875</v>
-      </c>
-      <c r="E12" s="21">
-        <v>1531.311767578125</v>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="22">
+        <v>1077.135375976563</v>
+      </c>
+      <c r="C12" s="29">
+        <v>1578.427612304688</v>
+      </c>
+      <c r="E12" s="36">
+        <v>1761.309326171875</v>
       </c>
     </row>
   </sheetData>
